--- a/biology/Zoologie/Capitojoppa_amazonica/Capitojoppa_amazonica.xlsx
+++ b/biology/Zoologie/Capitojoppa_amazonica/Capitojoppa_amazonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capitojoppa
-Capitojoppa amazonica, unique représentant du genre Capitojoppa, est une espèce d'insectes hyménoptères de la famille des Ichneumonidae[1].
+Capitojoppa amazonica, unique représentant du genre Capitojoppa, est une espèce d'insectes hyménoptères de la famille des Ichneumonidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue, pour l'instant, que de sa localité type, la réserve nationale Allpahuayo-Mishana (d) au Pérou[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue, pour l'instant, que de sa localité type, la réserve nationale Allpahuayo-Mishana (d) au Pérou,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Capitojoppa amazonica, une femelle, mesure 17,7 mm et son aile antérieure 14 mm[1]. Le mâle paratype mesure quant à lui respectivement 17 mm et son aile antérieure 13,6 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Capitojoppa amazonica, une femelle, mesure 17,7 mm et son aile antérieure 14 mm. Le mâle paratype mesure quant à lui respectivement 17 mm et son aile antérieure 13,6 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Capitojoppa et l'espèce Capitojoppa amazonica ont été décrits en 2023 par Brandon R. Claridge (d), Kari M. Kaunisto (d) et Ilari Eerikki Sääksjärvi (d)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Capitojoppa et l'espèce Capitojoppa amazonica ont été décrits en 2023 par Brandon R. Claridge (d), Kari M. Kaunisto (d) et Ilari Eerikki Sääksjärvi (d).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Brandon R. Claridge, Kari M. Kaunisto et Ilari E. Sääksjärvi, « Capitojoppa, a new genus of Ichneumoninae (Hymenoptera, Ichneumonidae) from Peruvian Amazonia », ZooKeys, Bulgarie, vol. 1178,‎ 1er septembre 2023, p. 69-76 (ISSN 1313-2989, e-ISSN 1313-2970, lire en ligne, consulté le 18 octobre 2023).</t>
         </is>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre est composé de, capito- (latin) faisant référence à sa grosse tête bulbeuse ; joppa en référence aux guêpes du genre Joppa, auxquelles cette nouvelle guêpe ressemble, et amazonica faisant référence à la forêt amazonienne[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre est composé de, capito- (latin) faisant référence à sa grosse tête bulbeuse ; joppa en référence aux guêpes du genre Joppa, auxquelles cette nouvelle guêpe ressemble, et amazonica faisant référence à la forêt amazonienne.
 </t>
         </is>
       </c>
